--- a/inst/extdata/empty_excel.xlsx
+++ b/inst/extdata/empty_excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,17 +15,24 @@
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,7 +397,7 @@
       <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/empty_excel.xlsx
+++ b/inst/extdata/empty_excel.xlsx
@@ -402,4 +402,203 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005C0785B5AE07D648A35CBE06027B3A9A" ma:contentTypeVersion="10" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="0bf6ee709b3de6cc2ca22a78e4061994">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f2cc503-5358-4f9e-8ed5-059173de2454" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f752f1f93033319c3949c5a45c6682b7" ns2:_="">
+    <xsd:import namespace="2f2cc503-5358-4f9e-8ed5-059173de2454"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2f2cc503-5358-4f9e-8ed5-059173de2454" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Indholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E6CFD81-2647-43F1-BAD0-050CD5BA3883}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B65842-0DB5-4E68-B7C4-8D09F38F80C8}"/>
 </file>